--- a/Tabela_Paises_cod_Norma_ISO_3166.xlsx
+++ b/Tabela_Paises_cod_Norma_ISO_3166.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui.fartaria\Dropbox\Bitlaw\VitoriaDoSobral\projeto_guias\20230508_mapa_estrangeiros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED11549-815C-4C3F-A5B2-D111701F26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7F29A-21FE-4142-ABE9-A393BB97BB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B718992E-0A0F-463A-8E3A-BD4DAC23EE9A}"/>
   </bookViews>
@@ -3037,6 +3037,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3066,16 +3069,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3094,13 +3101,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EA1AB2C-0C38-4971-9500-E76692387F80}" name="Table1" displayName="Table1" ref="A1:F250" totalsRowShown="0">
   <autoFilter ref="A1:F250" xr:uid="{6EA1AB2C-0C38-4971-9500-E76692387F80}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C48A5218-2603-49FC-90A9-3F79ACAF14C4}" name="Cód. Num. "/>
+    <tableColumn id="1" xr3:uid="{C48A5218-2603-49FC-90A9-3F79ACAF14C4}" name="Cód. Num. " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{8A755C96-4DC5-49B4-8064-E21DD15A510B}" name="Cód Alf2 "/>
     <tableColumn id="3" xr3:uid="{69D258E8-86BE-401D-BE64-32853271AB46}" name="Cód Alf3 "/>
     <tableColumn id="4" xr3:uid="{0C653F22-5A7E-402E-8146-A238C202A4D5}" name="Designação "/>
     <tableColumn id="5" xr3:uid="{8FA9CC06-C75F-4839-A89F-85056625309A}" name="Designação em Inglês"/>
     <tableColumn id="6" xr3:uid="{6C1AB01B-C6AC-4E09-9557-C7D0D22F7772}" name="SRC" dataDxfId="0">
-      <calculatedColumnFormula>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</calculatedColumnFormula>
+      <calculatedColumnFormula>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3406,13 +3413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B90C2-EB62-4DD8-B5BC-F1271D9F28AF}">
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
@@ -3422,7 +3429,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3442,7 +3449,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -3458,12 +3465,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "4"}, {"CodAlf2","AF"},{"CodAlf3","AFG"}, {"DesPT", "AFEGANISTAO" }, {"DesEN", "AFGHANISTAN" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "004"}, {"CodAlf2","AF"},{"CodAlf3","AFG"}, {"DesPT", "AFEGANISTAO" }, {"DesEN", "AFGHANISTAN" } },</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>710</v>
       </c>
       <c r="B3" t="s">
@@ -3479,12 +3486,12 @@
         <v>12</v>
       </c>
       <c r="F3" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "710"}, {"CodAlf2","ZA"},{"CodAlf3","ZAF"}, {"DesPT", "AFRICA DO SUL" }, {"DesEN", "SOUTH AFRICA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -3500,12 +3507,12 @@
         <v>16</v>
       </c>
       <c r="F4" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "8"}, {"CodAlf2","AL"},{"CodAlf3","ALB"}, {"DesPT", "ALBANIA" }, {"DesEN", "ALBANIA, PEOPLE'S SOCIALIST REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "008"}, {"CodAlf2","AL"},{"CodAlf3","ALB"}, {"DesPT", "ALBANIA" }, {"DesEN", "ALBANIA, PEOPLE'S SOCIALIST REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>276</v>
       </c>
       <c r="B5" t="s">
@@ -3521,12 +3528,12 @@
         <v>20</v>
       </c>
       <c r="F5" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "276"}, {"CodAlf2","DE"},{"CodAlf3","DEU"}, {"DesPT", "ALEMANHA" }, {"DesEN", "GERMANY" } },</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -3542,12 +3549,12 @@
         <v>24</v>
       </c>
       <c r="F6" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "20"}, {"CodAlf2","AD"},{"CodAlf3","AND"}, {"DesPT", "ANDORRA" }, {"DesEN", "ANDORRA, PRINCIPALITY OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "020"}, {"CodAlf2","AD"},{"CodAlf3","AND"}, {"DesPT", "ANDORRA" }, {"DesEN", "ANDORRA, PRINCIPALITY OF" } },</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -3563,12 +3570,12 @@
         <v>28</v>
       </c>
       <c r="F7" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "24"}, {"CodAlf2","AO"},{"CodAlf3","AGO"}, {"DesPT", "ANGOLA" }, {"DesEN", "ANGOLA, REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "024"}, {"CodAlf2","AO"},{"CodAlf3","AGO"}, {"DesPT", "ANGOLA" }, {"DesEN", "ANGOLA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>660</v>
       </c>
       <c r="B8" t="s">
@@ -3584,12 +3591,12 @@
         <v>32</v>
       </c>
       <c r="F8" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "660"}, {"CodAlf2","AI"},{"CodAlf3","AIA"}, {"DesPT", "ANGUILA" }, {"DesEN", "ANGUILLA" } },</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -3605,12 +3612,12 @@
         <v>36</v>
       </c>
       <c r="F9" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "10"}, {"CodAlf2","AQ"},{"CodAlf3","ATA"}, {"DesPT", "ANTARCTICA" }, {"DesEN", "ANTARCTICA (THE TERRITORY SOUTH OF 60 DEG S)" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "010"}, {"CodAlf2","AQ"},{"CodAlf3","ATA"}, {"DesPT", "ANTARCTICA" }, {"DesEN", "ANTARCTICA (THE TERRITORY SOUTH OF 60 DEG S)" } },</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>28</v>
       </c>
       <c r="B10" t="s">
@@ -3626,13 +3633,13 @@
         <v>40</v>
       </c>
       <c r="F10" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "28"}, {"CodAlf2","AG"},{"CodAlf3","ATG"}, {"DesPT", "ANTIGUA E BARBUDA" }, {"DesEN", "ANTIGUA AND BARBUDA" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "028"}, {"CodAlf2","AG"},{"CodAlf3","ATG"}, {"DesPT", "ANTIGUA E BARBUDA" }, {"DesEN", "ANTIGUA AND BARBUDA" } },</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>682</v>
       </c>
       <c r="B11" t="s">
@@ -3648,13 +3655,13 @@
         <v>44</v>
       </c>
       <c r="F11" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "682"}, {"CodAlf2","SA"},{"CodAlf3","SAU"}, {"DesPT", "ARABIA SAUDITA" }, {"DesEN", "SAUDI ARABIA, KINGDOM OF" } },</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -3670,13 +3677,13 @@
         <v>48</v>
       </c>
       <c r="F12" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "12"}, {"CodAlf2","DZ"},{"CodAlf3","DZA"}, {"DesPT", "ARGELIA" }, {"DesEN", "ALGERIA, PEOPLE'S DEMOCRATIC REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "012"}, {"CodAlf2","DZ"},{"CodAlf3","DZA"}, {"DesPT", "ARGELIA" }, {"DesEN", "ALGERIA, PEOPLE'S DEMOCRATIC REPUBLIC OF" } },</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>32</v>
       </c>
       <c r="B13" t="s">
@@ -3692,13 +3699,13 @@
         <v>52</v>
       </c>
       <c r="F13" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "32"}, {"CodAlf2","AR"},{"CodAlf3","ARG"}, {"DesPT", "ARGENTINA" }, {"DesEN", "ARGENTINA, ARGENTINE REPUBLIC" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "032"}, {"CodAlf2","AR"},{"CodAlf3","ARG"}, {"DesPT", "ARGENTINA" }, {"DesEN", "ARGENTINA, ARGENTINE REPUBLIC" } },</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>51</v>
       </c>
       <c r="B14" t="s">
@@ -3714,13 +3721,13 @@
         <v>56</v>
       </c>
       <c r="F14" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "51"}, {"CodAlf2","AM"},{"CodAlf3","ARM"}, {"DesPT", "ARMENIA" }, {"DesEN", "ARMENIA" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "051"}, {"CodAlf2","AM"},{"CodAlf3","ARM"}, {"DesPT", "ARMENIA" }, {"DesEN", "ARMENIA" } },</v>
       </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>533</v>
       </c>
       <c r="B15" t="s">
@@ -3736,13 +3743,13 @@
         <v>60</v>
       </c>
       <c r="F15" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "533"}, {"CodAlf2","AW"},{"CodAlf3","ABW"}, {"DesPT", "ARUBA" }, {"DesEN", "ARUBA" } },</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>36</v>
       </c>
       <c r="B16" t="s">
@@ -3758,13 +3765,13 @@
         <v>64</v>
       </c>
       <c r="F16" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "36"}, {"CodAlf2","AU"},{"CodAlf3","AUS"}, {"DesPT", "AUSTRALIA" }, {"DesEN", "AUSTRALIA, COMMONWEALTH OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "036"}, {"CodAlf2","AU"},{"CodAlf3","AUS"}, {"DesPT", "AUSTRALIA" }, {"DesEN", "AUSTRALIA, COMMONWEALTH OF" } },</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>40</v>
       </c>
       <c r="B17" t="s">
@@ -3780,13 +3787,13 @@
         <v>68</v>
       </c>
       <c r="F17" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "40"}, {"CodAlf2","AT"},{"CodAlf3","AUT"}, {"DesPT", "AUSTRIA" }, {"DesEN", "AUSTRIA, REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "040"}, {"CodAlf2","AT"},{"CodAlf3","AUT"}, {"DesPT", "AUSTRIA" }, {"DesEN", "AUSTRIA, REPUBLIC OF" } },</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>31</v>
       </c>
       <c r="B18" t="s">
@@ -3802,13 +3809,13 @@
         <v>72</v>
       </c>
       <c r="F18" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "31"}, {"CodAlf2","AZ"},{"CodAlf3","AZE"}, {"DesPT", "AZERBAIJAO" }, {"DesEN", "AZERBAIJAN, REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "031"}, {"CodAlf2","AZ"},{"CodAlf3","AZE"}, {"DesPT", "AZERBAIJAO" }, {"DesEN", "AZERBAIJAN, REPUBLIC OF" } },</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>44</v>
       </c>
       <c r="B19" t="s">
@@ -3824,13 +3831,13 @@
         <v>76</v>
       </c>
       <c r="F19" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "44"}, {"CodAlf2","BS"},{"CodAlf3","BHS"}, {"DesPT", "BAHAMAS" }, {"DesEN", "BAHAMAS, COMMONWEALTH OF THE" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "044"}, {"CodAlf2","BS"},{"CodAlf3","BHS"}, {"DesPT", "BAHAMAS" }, {"DesEN", "BAHAMAS, COMMONWEALTH OF THE" } },</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>50</v>
       </c>
       <c r="B20" t="s">
@@ -3846,13 +3853,13 @@
         <v>80</v>
       </c>
       <c r="F20" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "50"}, {"CodAlf2","BD"},{"CodAlf3","BGD"}, {"DesPT", "BANGLADEXE" }, {"DesEN", "BANGLADESH, PEOPLE'S REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "050"}, {"CodAlf2","BD"},{"CodAlf3","BGD"}, {"DesPT", "BANGLADEXE" }, {"DesEN", "BANGLADESH, PEOPLE'S REPUBLIC OF" } },</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>52</v>
       </c>
       <c r="B21" t="s">
@@ -3868,13 +3875,13 @@
         <v>84</v>
       </c>
       <c r="F21" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "52"}, {"CodAlf2","BB"},{"CodAlf3","BRB"}, {"DesPT", "BARBADOS" }, {"DesEN", "BARBADOS" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "052"}, {"CodAlf2","BB"},{"CodAlf3","BRB"}, {"DesPT", "BARBADOS" }, {"DesEN", "BARBADOS" } },</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>48</v>
       </c>
       <c r="B22" t="s">
@@ -3890,13 +3897,13 @@
         <v>88</v>
       </c>
       <c r="F22" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "48"}, {"CodAlf2","BH"},{"CodAlf3","BHR"}, {"DesPT", "BAREM" }, {"DesEN", "BAHRAIN, KINGDOM OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "048"}, {"CodAlf2","BH"},{"CodAlf3","BHR"}, {"DesPT", "BAREM" }, {"DesEN", "BAHRAIN, KINGDOM OF" } },</v>
       </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>56</v>
       </c>
       <c r="B23" t="s">
@@ -3912,13 +3919,13 @@
         <v>92</v>
       </c>
       <c r="F23" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "56"}, {"CodAlf2","BE"},{"CodAlf3","BEL"}, {"DesPT", "BELGICA" }, {"DesEN", "BELGIUM, KINGDOM OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "056"}, {"CodAlf2","BE"},{"CodAlf3","BEL"}, {"DesPT", "BELGICA" }, {"DesEN", "BELGIUM, KINGDOM OF" } },</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>84</v>
       </c>
       <c r="B24" t="s">
@@ -3934,13 +3941,13 @@
         <v>96</v>
       </c>
       <c r="F24" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "84"}, {"CodAlf2","BZ"},{"CodAlf3","BLZ"}, {"DesPT", "BELIZE" }, {"DesEN", "BELIZE" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "084"}, {"CodAlf2","BZ"},{"CodAlf3","BLZ"}, {"DesPT", "BELIZE" }, {"DesEN", "BELIZE" } },</v>
       </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>204</v>
       </c>
       <c r="B25" t="s">
@@ -3956,13 +3963,13 @@
         <v>100</v>
       </c>
       <c r="F25" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "204"}, {"CodAlf2","BJ"},{"CodAlf3","BEN"}, {"DesPT", "BENIN" }, {"DesEN", "BENIN (WAS DAHOMEY), PEOPLE'S REPUBLIC OF" } },</v>
       </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>60</v>
       </c>
       <c r="B26" t="s">
@@ -3978,13 +3985,13 @@
         <v>104</v>
       </c>
       <c r="F26" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "60"}, {"CodAlf2","BM"},{"CodAlf3","BMU"}, {"DesPT", "BERMUDA" }, {"DesEN", "BERMUDA" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "060"}, {"CodAlf2","BM"},{"CodAlf3","BMU"}, {"DesPT", "BERMUDA" }, {"DesEN", "BERMUDA" } },</v>
       </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>112</v>
       </c>
       <c r="B27" t="s">
@@ -4000,13 +4007,13 @@
         <v>108</v>
       </c>
       <c r="F27" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "112"}, {"CodAlf2","BY"},{"CodAlf3","BLR"}, {"DesPT", "BIELORRUSSIA" }, {"DesEN", "BELARUS" } },</v>
       </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>68</v>
       </c>
       <c r="B28" t="s">
@@ -4022,13 +4029,13 @@
         <v>112</v>
       </c>
       <c r="F28" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "68"}, {"CodAlf2","BO"},{"CodAlf3","BOL"}, {"DesPT", "BOLIVIA" }, {"DesEN", "BOLIVIA, REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "068"}, {"CodAlf2","BO"},{"CodAlf3","BOL"}, {"DesPT", "BOLIVIA" }, {"DesEN", "BOLIVIA, REPUBLIC OF" } },</v>
       </c>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>70</v>
       </c>
       <c r="B29" t="s">
@@ -4044,13 +4051,13 @@
         <v>116</v>
       </c>
       <c r="F29" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "70"}, {"CodAlf2","BA"},{"CodAlf3","BIH"}, {"DesPT", "BOSNIA E HERZEGOVINA" }, {"DesEN", "BOSNIA AND HERZEGOVINA" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "070"}, {"CodAlf2","BA"},{"CodAlf3","BIH"}, {"DesPT", "BOSNIA E HERZEGOVINA" }, {"DesEN", "BOSNIA AND HERZEGOVINA" } },</v>
       </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>72</v>
       </c>
       <c r="B30" t="s">
@@ -4066,13 +4073,13 @@
         <v>120</v>
       </c>
       <c r="F30" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "72"}, {"CodAlf2","BW"},{"CodAlf3","BWA"}, {"DesPT", "BOTSWANA" }, {"DesEN", "BOTSWANA, REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "072"}, {"CodAlf2","BW"},{"CodAlf3","BWA"}, {"DesPT", "BOTSWANA" }, {"DesEN", "BOTSWANA, REPUBLIC OF" } },</v>
       </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>76</v>
       </c>
       <c r="B31" t="s">
@@ -4088,13 +4095,13 @@
         <v>124</v>
       </c>
       <c r="F31" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "76"}, {"CodAlf2","BR"},{"CodAlf3","BRA"}, {"DesPT", "BRASIL" }, {"DesEN", "BRAZIL, FEDERATIVE REPUBLIC OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "076"}, {"CodAlf2","BR"},{"CodAlf3","BRA"}, {"DesPT", "BRASIL" }, {"DesEN", "BRAZIL, FEDERATIVE REPUBLIC OF" } },</v>
       </c>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>96</v>
       </c>
       <c r="B32" t="s">
@@ -4110,13 +4117,13 @@
         <v>128</v>
       </c>
       <c r="F32" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "96"}, {"CodAlf2","BN"},{"CodAlf3","BRN"}, {"DesPT", "BRUNEI DARUSSALAM" }, {"DesEN", "BRUNEI DARUSSALAM" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "096"}, {"CodAlf2","BN"},{"CodAlf3","BRN"}, {"DesPT", "BRUNEI DARUSSALAM" }, {"DesEN", "BRUNEI DARUSSALAM" } },</v>
       </c>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>100</v>
       </c>
       <c r="B33" t="s">
@@ -4132,12 +4139,12 @@
         <v>132</v>
       </c>
       <c r="F33" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "100"}, {"CodAlf2","BG"},{"CodAlf3","BGR"}, {"DesPT", "BULGARIA" }, {"DesEN", "BULGARIA, PEOPLE'S REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>854</v>
       </c>
       <c r="B34" t="s">
@@ -4153,12 +4160,12 @@
         <v>136</v>
       </c>
       <c r="F34" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "854"}, {"CodAlf2","BF"},{"CodAlf3","BFA"}, {"DesPT", "BURQUINA FASSO" }, {"DesEN", "BURKINA FASO (WAS UPPER VOLTA)" } },</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>108</v>
       </c>
       <c r="B35" t="s">
@@ -4174,12 +4181,12 @@
         <v>140</v>
       </c>
       <c r="F35" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "108"}, {"CodAlf2","BI"},{"CodAlf3","BDI"}, {"DesPT", "BURUNDI" }, {"DesEN", "BURUNDI, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>64</v>
       </c>
       <c r="B36" t="s">
@@ -4195,12 +4202,12 @@
         <v>144</v>
       </c>
       <c r="F36" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "64"}, {"CodAlf2","BT"},{"CodAlf3","BTN"}, {"DesPT", "BUTAO" }, {"DesEN", "BHUTAN, KINGDOM OF" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "064"}, {"CodAlf2","BT"},{"CodAlf3","BTN"}, {"DesPT", "BUTAO" }, {"DesEN", "BHUTAN, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>132</v>
       </c>
       <c r="B37" t="s">
@@ -4216,12 +4223,12 @@
         <v>148</v>
       </c>
       <c r="F37" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "132"}, {"CodAlf2","CV"},{"CodAlf3","CPV"}, {"DesPT", "CABO VERDE" }, {"DesEN", "CAPE VERDE, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>120</v>
       </c>
       <c r="B38" t="s">
@@ -4237,12 +4244,12 @@
         <v>152</v>
       </c>
       <c r="F38" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "120"}, {"CodAlf2","CM"},{"CodAlf3","CMR"}, {"DesPT", "CAMAROES" }, {"DesEN", "CAMEROON, UNITED REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>116</v>
       </c>
       <c r="B39" t="s">
@@ -4258,12 +4265,12 @@
         <v>156</v>
       </c>
       <c r="F39" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "116"}, {"CodAlf2","KH"},{"CodAlf3","KHM"}, {"DesPT", "CAMBOJA" }, {"DesEN", "CAMBODIA, KINGDOM OF (WAS KHMER REPUBLIC/KAMPUCHEA)" } },</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>124</v>
       </c>
       <c r="B40" t="s">
@@ -4279,12 +4286,12 @@
         <v>160</v>
       </c>
       <c r="F40" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "124"}, {"CodAlf2","CA"},{"CodAlf3","CAN"}, {"DesPT", "CANADA" }, {"DesEN", "CANADA" } },</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>634</v>
       </c>
       <c r="B41" t="s">
@@ -4300,12 +4307,12 @@
         <v>164</v>
       </c>
       <c r="F41" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "634"}, {"CodAlf2","QA"},{"CodAlf3","QAT"}, {"DesPT", "CATAR" }, {"DesEN", "QATAR, STATE OF" } },</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>398</v>
       </c>
       <c r="B42" t="s">
@@ -4321,12 +4328,12 @@
         <v>168</v>
       </c>
       <c r="F42" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "398"}, {"CodAlf2","KZ"},{"CodAlf3","KAZ"}, {"DesPT", "CAZAQUISTAO" }, {"DesEN", "KAZAKHSTAN, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>140</v>
       </c>
       <c r="B43" t="s">
@@ -4342,12 +4349,12 @@
         <v>172</v>
       </c>
       <c r="F43" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "140"}, {"CodAlf2","CF"},{"CodAlf3","CAF"}, {"DesPT", "CENTRO-AFRICANA (REPUBLICA)" }, {"DesEN", "CENTRAL AFRICAN REPUBLIC" } },</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>148</v>
       </c>
       <c r="B44" t="s">
@@ -4363,12 +4370,12 @@
         <v>176</v>
       </c>
       <c r="F44" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "148"}, {"CodAlf2","TD"},{"CodAlf3","TCD"}, {"DesPT", "CHADE" }, {"DesEN", "CHAD, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>203</v>
       </c>
       <c r="B45" t="s">
@@ -4384,12 +4391,12 @@
         <v>180</v>
       </c>
       <c r="F45" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "203"}, {"CodAlf2","CZ"},{"CodAlf3","CZE"}, {"DesPT", "CHÉQUIA" }, {"DesEN", "CZECHIA" } },</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>152</v>
       </c>
       <c r="B46" t="s">
@@ -4405,12 +4412,12 @@
         <v>184</v>
       </c>
       <c r="F46" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "152"}, {"CodAlf2","CL"},{"CodAlf3","CHL"}, {"DesPT", "CHILE" }, {"DesEN", "CHILE, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>156</v>
       </c>
       <c r="B47" t="s">
@@ -4426,12 +4433,12 @@
         <v>188</v>
       </c>
       <c r="F47" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "156"}, {"CodAlf2","CN"},{"CodAlf3","CHN"}, {"DesPT", "CHINA" }, {"DesEN", "CHINA, PEOPLE'S REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>196</v>
       </c>
       <c r="B48" t="s">
@@ -4447,12 +4454,12 @@
         <v>192</v>
       </c>
       <c r="F48" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "196"}, {"CodAlf2","CY"},{"CodAlf3","CYP"}, {"DesPT", "CHIPRE" }, {"DesEN", "CYPRUS, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>170</v>
       </c>
       <c r="B49" t="s">
@@ -4468,12 +4475,12 @@
         <v>196</v>
       </c>
       <c r="F49" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "170"}, {"CodAlf2","CO"},{"CodAlf3","COL"}, {"DesPT", "COLOMBIA" }, {"DesEN", "COLOMBIA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>174</v>
       </c>
       <c r="B50" t="s">
@@ -4489,12 +4496,12 @@
         <v>200</v>
       </c>
       <c r="F50" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "174"}, {"CodAlf2","KM"},{"CodAlf3","COM"}, {"DesPT", "COMORES" }, {"DesEN", "COMOROS, FEDERAL AND ISLAMIC REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>178</v>
       </c>
       <c r="B51" t="s">
@@ -4510,12 +4517,12 @@
         <v>204</v>
       </c>
       <c r="F51" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "178"}, {"CodAlf2","CG"},{"CodAlf3","COG"}, {"DesPT", "CONGO" }, {"DesEN", "CONGO, PEOPLE'S REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>180</v>
       </c>
       <c r="B52" t="s">
@@ -4531,12 +4538,12 @@
         <v>208</v>
       </c>
       <c r="F52" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "180"}, {"CodAlf2","CD"},{"CodAlf3","COD"}, {"DesPT", "CONGO (REPUBLICA DEMOCRATICA DO)" }, {"DesEN", "CONGO, DEMOCRATIC REPUBLIC OF (WAS ZAIRE)" } },</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>410</v>
       </c>
       <c r="B53" t="s">
@@ -4552,12 +4559,12 @@
         <v>212</v>
       </c>
       <c r="F53" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "410"}, {"CodAlf2","KR"},{"CodAlf3","KOR"}, {"DesPT", "COREIA (REPUBLICA DA)" }, {"DesEN", "KOREA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>408</v>
       </c>
       <c r="B54" t="s">
@@ -4573,12 +4580,12 @@
         <v>216</v>
       </c>
       <c r="F54" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "408"}, {"CodAlf2","KP"},{"CodAlf3","PRK"}, {"DesPT", "COREIA (REPUBLICA POPULAR DEMOCRATICA DA)" }, {"DesEN", "KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>384</v>
       </c>
       <c r="B55" t="s">
@@ -4594,12 +4601,12 @@
         <v>220</v>
       </c>
       <c r="F55" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "384"}, {"CodAlf2","CI"},{"CodAlf3","CIV"}, {"DesPT", "COSTA DO MARFIM" }, {"DesEN", "COTE D'IVOIRE, IVORY COAST, REPUBLIC OF THE" } },</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>188</v>
       </c>
       <c r="B56" t="s">
@@ -4615,12 +4622,12 @@
         <v>224</v>
       </c>
       <c r="F56" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "188"}, {"CodAlf2","CR"},{"CodAlf3","CRI"}, {"DesPT", "COSTA RICA" }, {"DesEN", "COSTA RICA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>191</v>
       </c>
       <c r="B57" t="s">
@@ -4636,12 +4643,12 @@
         <v>228</v>
       </c>
       <c r="F57" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "191"}, {"CodAlf2","HR"},{"CodAlf3","HRV"}, {"DesPT", "CROACIA" }, {"DesEN", "HRVATSKA (CROATIA)" } },</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>192</v>
       </c>
       <c r="B58" t="s">
@@ -4657,12 +4664,12 @@
         <v>232</v>
       </c>
       <c r="F58" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "192"}, {"CodAlf2","CU"},{"CodAlf3","CUB"}, {"DesPT", "CUBA" }, {"DesEN", "CUBA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>531</v>
       </c>
       <c r="B59" t="s">
@@ -4678,12 +4685,12 @@
         <v>236</v>
       </c>
       <c r="F59" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "531"}, {"CodAlf2","CW"},{"CodAlf3","CUW"}, {"DesPT", "Curaçau" }, {"DesEN", "Curaçao" } },</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>208</v>
       </c>
       <c r="B60" t="s">
@@ -4699,12 +4706,12 @@
         <v>240</v>
       </c>
       <c r="F60" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "208"}, {"CodAlf2","DK"},{"CodAlf3","DNK"}, {"DesPT", "DINAMARCA" }, {"DesEN", "DENMARK, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>212</v>
       </c>
       <c r="B61" t="s">
@@ -4720,12 +4727,12 @@
         <v>244</v>
       </c>
       <c r="F61" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "212"}, {"CodAlf2","DM"},{"CodAlf3","DMA"}, {"DesPT", "DOMINICA" }, {"DesEN", "DOMINICA, COMMONWEALTH OF" } },</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>818</v>
       </c>
       <c r="B62" t="s">
@@ -4741,12 +4748,12 @@
         <v>248</v>
       </c>
       <c r="F62" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "818"}, {"CodAlf2","EG"},{"CodAlf3","EGY"}, {"DesPT", "EGIPTO" }, {"DesEN", "EGYPT, ARAB REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>222</v>
       </c>
       <c r="B63" t="s">
@@ -4762,12 +4769,12 @@
         <v>252</v>
       </c>
       <c r="F63" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "222"}, {"CodAlf2","SV"},{"CodAlf3","SLV"}, {"DesPT", "EL SALVADOR" }, {"DesEN", "EL SALVADOR, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>784</v>
       </c>
       <c r="B64" t="s">
@@ -4783,12 +4790,12 @@
         <v>256</v>
       </c>
       <c r="F64" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "784"}, {"CodAlf2","AE"},{"CodAlf3","ARE"}, {"DesPT", "EMIRATOS ARABES UNIDOS" }, {"DesEN", "UNITED ARAB EMIRATES (WAS TRUCIAL STATES)" } },</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>218</v>
       </c>
       <c r="B65" t="s">
@@ -4804,12 +4811,12 @@
         <v>260</v>
       </c>
       <c r="F65" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "218"}, {"CodAlf2","EC"},{"CodAlf3","ECU"}, {"DesPT", "EQUADOR" }, {"DesEN", "ECUADOR, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>232</v>
       </c>
       <c r="B66" t="s">
@@ -4825,12 +4832,12 @@
         <v>264</v>
       </c>
       <c r="F66" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "232"}, {"CodAlf2","ER"},{"CodAlf3","ERI"}, {"DesPT", "ERITREIA" }, {"DesEN", "ERITREA" } },</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>703</v>
       </c>
       <c r="B67" t="s">
@@ -4846,12 +4853,12 @@
         <v>268</v>
       </c>
       <c r="F67" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "703"}, {"CodAlf2","SK"},{"CodAlf3","SVK"}, {"DesPT", "ESLOVACA (REPUBLICA)" }, {"DesEN", "SLOVAKIA (SLOVAK REPUBLIC)" } },</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>705</v>
       </c>
       <c r="B68" t="s">
@@ -4867,12 +4874,12 @@
         <v>272</v>
       </c>
       <c r="F68" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "705"}, {"CodAlf2","SI"},{"CodAlf3","SVN"}, {"DesPT", "ESLOVENIA" }, {"DesEN", "SLOVENIA" } },</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>724</v>
       </c>
       <c r="B69" t="s">
@@ -4888,12 +4895,12 @@
         <v>276</v>
       </c>
       <c r="F69" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "724"}, {"CodAlf2","ES"},{"CodAlf3","ESP"}, {"DesPT", "ESPANHA" }, {"DesEN", "SPAIN, SPANISH STATE" } },</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>748</v>
       </c>
       <c r="B70" t="s">
@@ -4909,12 +4916,12 @@
         <v>280</v>
       </c>
       <c r="F70" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "748"}, {"CodAlf2","SZ"},{"CodAlf3","SWZ"}, {"DesPT", "ESSUATINI" }, {"DesEN", "ESWATINI" } },</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>840</v>
       </c>
       <c r="B71" t="s">
@@ -4930,12 +4937,12 @@
         <v>284</v>
       </c>
       <c r="F71" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "840"}, {"CodAlf2","US"},{"CodAlf3","USA"}, {"DesPT", "ESTADOS UNIDOS" }, {"DesEN", "UNITED STATES OF AMERICA" } },</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>233</v>
       </c>
       <c r="B72" t="s">
@@ -4951,12 +4958,12 @@
         <v>288</v>
       </c>
       <c r="F72" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "233"}, {"CodAlf2","EE"},{"CodAlf3","EST"}, {"DesPT", "ESTONIA" }, {"DesEN", "ESTONIA" } },</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>231</v>
       </c>
       <c r="B73" t="s">
@@ -4972,12 +4979,12 @@
         <v>292</v>
       </c>
       <c r="F73" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "231"}, {"CodAlf2","ET"},{"CodAlf3","ETH"}, {"DesPT", "ETIOPIA" }, {"DesEN", "ETHIOPIA" } },</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>608</v>
       </c>
       <c r="B74" t="s">
@@ -4993,12 +5000,12 @@
         <v>296</v>
       </c>
       <c r="F74" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "608"}, {"CodAlf2","PH"},{"CodAlf3","PHL"}, {"DesPT", "FILIPINAS" }, {"DesEN", "PHILIPPINES, REPUBLIC OF THE" } },</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>246</v>
       </c>
       <c r="B75" t="s">
@@ -5014,12 +5021,12 @@
         <v>300</v>
       </c>
       <c r="F75" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "246"}, {"CodAlf2","FI"},{"CodAlf3","FIN"}, {"DesPT", "FINLANDIA" }, {"DesEN", "FINLAND, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>250</v>
       </c>
       <c r="B76" t="s">
@@ -5035,12 +5042,12 @@
         <v>304</v>
       </c>
       <c r="F76" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "250"}, {"CodAlf2","FR"},{"CodAlf3","FRA"}, {"DesPT", "FRANCA" }, {"DesEN", "FRANCE, FRENCH REPUBLIC" } },</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>266</v>
       </c>
       <c r="B77" t="s">
@@ -5056,12 +5063,12 @@
         <v>308</v>
       </c>
       <c r="F77" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "266"}, {"CodAlf2","GA"},{"CodAlf3","GAB"}, {"DesPT", "GABAO" }, {"DesEN", "GABON, GABONESE REPUBLIC" } },</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>270</v>
       </c>
       <c r="B78" t="s">
@@ -5077,12 +5084,12 @@
         <v>312</v>
       </c>
       <c r="F78" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "270"}, {"CodAlf2","GM"},{"CodAlf3","GMB"}, {"DesPT", "GAMBIA" }, {"DesEN", "GAMBIA, REPUBLIC OF THE" } },</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>288</v>
       </c>
       <c r="B79" t="s">
@@ -5098,12 +5105,12 @@
         <v>316</v>
       </c>
       <c r="F79" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "288"}, {"CodAlf2","GH"},{"CodAlf3","GHA"}, {"DesPT", "GANA" }, {"DesEN", "GHANA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>268</v>
       </c>
       <c r="B80" t="s">
@@ -5119,12 +5126,12 @@
         <v>320</v>
       </c>
       <c r="F80" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "268"}, {"CodAlf2","GE"},{"CodAlf3","GEO"}, {"DesPT", "GEORGIA" }, {"DesEN", "GEORGIA" } },</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>239</v>
       </c>
       <c r="B81" t="s">
@@ -5140,12 +5147,12 @@
         <v>324</v>
       </c>
       <c r="F81" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "239"}, {"CodAlf2","GS"},{"CodAlf3","SGS"}, {"DesPT", "GEORGIA DO SUL E ILHAS SANDWICH" }, {"DesEN", "SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS" } },</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>831</v>
       </c>
       <c r="B82" t="s">
@@ -5161,12 +5168,12 @@
         <v>328</v>
       </c>
       <c r="F82" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "831"}, {"CodAlf2","GG"},{"CodAlf3","GGY"}, {"DesPT", "GERNSEY" }, {"DesEN", "GERNSEY (a partir de 2006-03-29)" } },</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>292</v>
       </c>
       <c r="B83" t="s">
@@ -5182,12 +5189,12 @@
         <v>332</v>
       </c>
       <c r="F83" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "292"}, {"CodAlf2","GI"},{"CodAlf3","GIB"}, {"DesPT", "GIBRALTAR" }, {"DesEN", "GIBRALTAR" } },</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>308</v>
       </c>
       <c r="B84" t="s">
@@ -5203,12 +5210,12 @@
         <v>336</v>
       </c>
       <c r="F84" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "308"}, {"CodAlf2","GD"},{"CodAlf3","GRD"}, {"DesPT", "GRANADA" }, {"DesEN", "GRENADA" } },</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>300</v>
       </c>
       <c r="B85" t="s">
@@ -5224,12 +5231,12 @@
         <v>340</v>
       </c>
       <c r="F85" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "300"}, {"CodAlf2","GR"},{"CodAlf3","GRC"}, {"DesPT", "GRECIA" }, {"DesEN", "GREECE, HELLENIC REPUBLIC" } },</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>304</v>
       </c>
       <c r="B86" t="s">
@@ -5245,12 +5252,12 @@
         <v>344</v>
       </c>
       <c r="F86" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "304"}, {"CodAlf2","GL"},{"CodAlf3","GRL"}, {"DesPT", "GRONELANDIA" }, {"DesEN", "GREENLAND" } },</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>312</v>
       </c>
       <c r="B87" t="s">
@@ -5266,12 +5273,12 @@
         <v>348</v>
       </c>
       <c r="F87" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "312"}, {"CodAlf2","GP"},{"CodAlf3","GLP"}, {"DesPT", "GUADALUPE" }, {"DesEN", "GUADALOUPE" } },</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>316</v>
       </c>
       <c r="B88" t="s">
@@ -5287,12 +5294,12 @@
         <v>352</v>
       </c>
       <c r="F88" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "316"}, {"CodAlf2","GU"},{"CodAlf3","GUM"}, {"DesPT", "GUAM" }, {"DesEN", "GUAM" } },</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>320</v>
       </c>
       <c r="B89" t="s">
@@ -5308,12 +5315,12 @@
         <v>356</v>
       </c>
       <c r="F89" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "320"}, {"CodAlf2","GT"},{"CodAlf3","GTM"}, {"DesPT", "GUATEMALA" }, {"DesEN", "GUATEMALA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>328</v>
       </c>
       <c r="B90" t="s">
@@ -5329,12 +5336,12 @@
         <v>360</v>
       </c>
       <c r="F90" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "328"}, {"CodAlf2","GY"},{"CodAlf3","GUY"}, {"DesPT", "GUIANA" }, {"DesEN", "GUYANA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>254</v>
       </c>
       <c r="B91" t="s">
@@ -5350,12 +5357,12 @@
         <v>364</v>
       </c>
       <c r="F91" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "254"}, {"CodAlf2","GF"},{"CodAlf3","GUF"}, {"DesPT", "GUIANA FRANCESA" }, {"DesEN", "FRENCH GUIANA" } },</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>324</v>
       </c>
       <c r="B92" t="s">
@@ -5371,12 +5378,12 @@
         <v>368</v>
       </c>
       <c r="F92" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "324"}, {"CodAlf2","GN"},{"CodAlf3","GIN"}, {"DesPT", "GUINE" }, {"DesEN", "GUINEA, REVOLUTIONARY PEOPLE'S REP'C OF" } },</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>226</v>
       </c>
       <c r="B93" t="s">
@@ -5392,12 +5399,12 @@
         <v>372</v>
       </c>
       <c r="F93" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "226"}, {"CodAlf2","GQ"},{"CodAlf3","GNQ"}, {"DesPT", "GUINE EQUATORIAL" }, {"DesEN", "EQUATORIAL GUINEA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>624</v>
       </c>
       <c r="B94" t="s">
@@ -5413,12 +5420,12 @@
         <v>376</v>
       </c>
       <c r="F94" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "624"}, {"CodAlf2","GW"},{"CodAlf3","GNB"}, {"DesPT", "GUINE-BISSAU" }, {"DesEN", "GUINEA-BISSAU, REPUBLIC OF (WAS PORTUGUESE GUINEA)" } },</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>332</v>
       </c>
       <c r="B95" t="s">
@@ -5434,12 +5441,12 @@
         <v>380</v>
       </c>
       <c r="F95" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "332"}, {"CodAlf2","HT"},{"CodAlf3","HTI"}, {"DesPT", "HAITI" }, {"DesEN", "HAITI, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>340</v>
       </c>
       <c r="B96" t="s">
@@ -5455,12 +5462,12 @@
         <v>384</v>
       </c>
       <c r="F96" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "340"}, {"CodAlf2","HN"},{"CodAlf3","HND"}, {"DesPT", "HONDURAS" }, {"DesEN", "HONDURAS, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>344</v>
       </c>
       <c r="B97" t="s">
@@ -5476,12 +5483,12 @@
         <v>388</v>
       </c>
       <c r="F97" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "344"}, {"CodAlf2","HK"},{"CodAlf3","HKG"}, {"DesPT", "HONG KONG" }, {"DesEN", "HONG KONG, SPECIAL ADMINISTRATIVE REGION OF CHINA" } },</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>348</v>
       </c>
       <c r="B98" t="s">
@@ -5497,12 +5504,12 @@
         <v>392</v>
       </c>
       <c r="F98" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "348"}, {"CodAlf2","HU"},{"CodAlf3","HUN"}, {"DesPT", "HUNGRIA" }, {"DesEN", "HUNGARY, HUNGARIAN PEOPLE'S REPUBLIC" } },</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>887</v>
       </c>
       <c r="B99" t="s">
@@ -5518,12 +5525,12 @@
         <v>396</v>
       </c>
       <c r="F99" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "887"}, {"CodAlf2","YE"},{"CodAlf3","YEM"}, {"DesPT", "IEMEN" }, {"DesEN", "YEMEN" } },</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>833</v>
       </c>
       <c r="B100" t="s">
@@ -5539,12 +5546,12 @@
         <v>400</v>
       </c>
       <c r="F100" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "833"}, {"CodAlf2","IM"},{"CodAlf3","IMN"}, {"DesPT", "ILHA DE MAN" }, {"DesEN", "ISLE OF MAN" } },</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>248</v>
       </c>
       <c r="B101" t="s">
@@ -5560,12 +5567,12 @@
         <v>404</v>
       </c>
       <c r="F101" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "248"}, {"CodAlf2","AX"},{"CodAlf3","ALA"}, {"DesPT", "ILHAS ALAND" }, {"DesEN", "ALAND ISLANDS" } },</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>74</v>
       </c>
       <c r="B102" t="s">
@@ -5581,12 +5588,12 @@
         <v>408</v>
       </c>
       <c r="F102" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "74"}, {"CodAlf2","BV"},{"CodAlf3","BVT"}, {"DesPT", "ILHAS BOUVET" }, {"DesEN", "BOUVET ISLAND (BOUVETOYA)" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "074"}, {"CodAlf2","BV"},{"CodAlf3","BVT"}, {"DesPT", "ILHAS BOUVET" }, {"DesEN", "BOUVET ISLAND (BOUVETOYA)" } },</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>136</v>
       </c>
       <c r="B103" t="s">
@@ -5602,12 +5609,12 @@
         <v>412</v>
       </c>
       <c r="F103" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "136"}, {"CodAlf2","KY"},{"CodAlf3","CYM"}, {"DesPT", "ILHAS CAIMAO" }, {"DesEN", "CAYMAN ISLANDS" } },</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>162</v>
       </c>
       <c r="B104" t="s">
@@ -5623,12 +5630,12 @@
         <v>416</v>
       </c>
       <c r="F104" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "162"}, {"CodAlf2","CX"},{"CodAlf3","CXR"}, {"DesPT", "ILHAS CHRISTMAS" }, {"DesEN", "CHRISTMAS ISLAND" } },</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>166</v>
       </c>
       <c r="B105" t="s">
@@ -5644,12 +5651,12 @@
         <v>420</v>
       </c>
       <c r="F105" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "166"}, {"CodAlf2","CC"},{"CodAlf3","CCK"}, {"DesPT", "ILHAS COCOS (KEELING)" }, {"DesEN", "COCOS (KEELING) ISLANDS" } },</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>184</v>
       </c>
       <c r="B106" t="s">
@@ -5665,12 +5672,12 @@
         <v>424</v>
       </c>
       <c r="F106" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "184"}, {"CodAlf2","CK"},{"CodAlf3","COK"}, {"DesPT", "ILHAS COOK" }, {"DesEN", "COOK ISLANDS" } },</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>238</v>
       </c>
       <c r="B107" t="s">
@@ -5686,12 +5693,12 @@
         <v>428</v>
       </c>
       <c r="F107" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "238"}, {"CodAlf2","FK"},{"CodAlf3","FLK"}, {"DesPT", "ILHAS FALKLAND (MALVINAS)" }, {"DesEN", "FALKLAND ISLANDS (MALVINAS)" } },</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>234</v>
       </c>
       <c r="B108" t="s">
@@ -5707,12 +5714,12 @@
         <v>432</v>
       </c>
       <c r="F108" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "234"}, {"CodAlf2","FO"},{"CodAlf3","FRO"}, {"DesPT", "ILHAS FAROE" }, {"DesEN", "FAEROE ISLANDS" } },</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>242</v>
       </c>
       <c r="B109" t="s">
@@ -5728,12 +5735,12 @@
         <v>436</v>
       </c>
       <c r="F109" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "242"}, {"CodAlf2","FJ"},{"CodAlf3","FJI"}, {"DesPT", "ILHAS FIJI" }, {"DesEN", "FIJI, REPUBLIC OF THE FIJI ISLANDS" } },</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>334</v>
       </c>
       <c r="B110" t="s">
@@ -5749,12 +5756,12 @@
         <v>440</v>
       </c>
       <c r="F110" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "334"}, {"CodAlf2","HM"},{"CodAlf3","HMD"}, {"DesPT", "ILHAS HEARD E ILHAS MCDONALD" }, {"DesEN", "HEARD AND MCDONALD ISLANDS" } },</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>580</v>
       </c>
       <c r="B111" t="s">
@@ -5770,12 +5777,12 @@
         <v>444</v>
       </c>
       <c r="F111" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "580"}, {"CodAlf2","MP"},{"CodAlf3","MNP"}, {"DesPT", "ILHAS MARIANAS DO NORTE" }, {"DesEN", "NORTHERN MARIANA ISLANDS" } },</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>584</v>
       </c>
       <c r="B112" t="s">
@@ -5791,12 +5798,12 @@
         <v>448</v>
       </c>
       <c r="F112" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "584"}, {"CodAlf2","MH"},{"CodAlf3","MHL"}, {"DesPT", "ILHAS MARSHALL" }, {"DesEN", "MARSHALL ISLANDS" } },</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>581</v>
       </c>
       <c r="B113" t="s">
@@ -5812,12 +5819,12 @@
         <v>452</v>
       </c>
       <c r="F113" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "581"}, {"CodAlf2","UM"},{"CodAlf3","UMI"}, {"DesPT", "ILHAS MENORES DISTANTES DOS ESTADOS UNIDOS" }, {"DesEN", "UNITED STATES MINOR OUTLYING ISLANDS" } },</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>574</v>
       </c>
       <c r="B114" t="s">
@@ -5833,12 +5840,12 @@
         <v>456</v>
       </c>
       <c r="F114" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "574"}, {"CodAlf2","NF"},{"CodAlf3","NFK"}, {"DesPT", "ILHAS NORFOLK" }, {"DesEN", "NORFOLK ISLAND" } },</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="2">
         <v>90</v>
       </c>
       <c r="B115" t="s">
@@ -5854,12 +5861,12 @@
         <v>460</v>
       </c>
       <c r="F115" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "90"}, {"CodAlf2","SB"},{"CodAlf3","SLB"}, {"DesPT", "ILHAS SALOMAO" }, {"DesEN", "SOLOMON ISLANDS (WAS BRITISH SOLOMON ISLANDS)" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "090"}, {"CodAlf2","SB"},{"CodAlf3","SLB"}, {"DesPT", "ILHAS SALOMAO" }, {"DesEN", "SOLOMON ISLANDS (WAS BRITISH SOLOMON ISLANDS)" } },</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>92</v>
       </c>
       <c r="B116" t="s">
@@ -5875,12 +5882,12 @@
         <v>464</v>
       </c>
       <c r="F116" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "92"}, {"CodAlf2","VG"},{"CodAlf3","VGB"}, {"DesPT", "ILHAS VIRGENS (BRITANICAS)" }, {"DesEN", "BRITISH VIRGIN ISLANDS" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "092"}, {"CodAlf2","VG"},{"CodAlf3","VGB"}, {"DesPT", "ILHAS VIRGENS (BRITANICAS)" }, {"DesEN", "BRITISH VIRGIN ISLANDS" } },</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="2">
         <v>850</v>
       </c>
       <c r="B117" t="s">
@@ -5896,12 +5903,12 @@
         <v>468</v>
       </c>
       <c r="F117" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "850"}, {"CodAlf2","VI"},{"CodAlf3","VIR"}, {"DesPT", "ILHAS VIRGENS (ESTADOS UNIDOS)" }, {"DesEN", "US VIRGIN ISLANDS" } },</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>356</v>
       </c>
       <c r="B118" t="s">
@@ -5917,12 +5924,12 @@
         <v>472</v>
       </c>
       <c r="F118" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "356"}, {"CodAlf2","IN"},{"CodAlf3","IND"}, {"DesPT", "INDIA" }, {"DesEN", "INDIA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="2">
         <v>360</v>
       </c>
       <c r="B119" t="s">
@@ -5938,12 +5945,12 @@
         <v>476</v>
       </c>
       <c r="F119" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "360"}, {"CodAlf2","ID"},{"CodAlf3","IDN"}, {"DesPT", "INDONESIA" }, {"DesEN", "INDONESIA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>364</v>
       </c>
       <c r="B120" t="s">
@@ -5959,12 +5966,12 @@
         <v>480</v>
       </c>
       <c r="F120" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "364"}, {"CodAlf2","IR"},{"CodAlf3","IRN"}, {"DesPT", "IRAO (REPUBLICA ISLAMICA)" }, {"DesEN", "IRAN, ISLAMIC REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="2">
         <v>368</v>
       </c>
       <c r="B121" t="s">
@@ -5980,12 +5987,12 @@
         <v>484</v>
       </c>
       <c r="F121" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "368"}, {"CodAlf2","IQ"},{"CodAlf3","IRQ"}, {"DesPT", "IRAQUE" }, {"DesEN", "IRAQ, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>372</v>
       </c>
       <c r="B122" t="s">
@@ -6001,12 +6008,12 @@
         <v>488</v>
       </c>
       <c r="F122" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "372"}, {"CodAlf2","IE"},{"CodAlf3","IRL"}, {"DesPT", "IRLANDA" }, {"DesEN", "IRELAND" } },</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="2">
         <v>352</v>
       </c>
       <c r="B123" t="s">
@@ -6022,12 +6029,12 @@
         <v>492</v>
       </c>
       <c r="F123" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "352"}, {"CodAlf2","IS"},{"CodAlf3","ISL"}, {"DesPT", "ISLANDIA" }, {"DesEN", "ICELAND" } },</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>376</v>
       </c>
       <c r="B124" t="s">
@@ -6043,12 +6050,12 @@
         <v>496</v>
       </c>
       <c r="F124" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "376"}, {"CodAlf2","IL"},{"CodAlf3","ISR"}, {"DesPT", "ISRAEL" }, {"DesEN", "ISRAEL, STATE OF" } },</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="2">
         <v>380</v>
       </c>
       <c r="B125" t="s">
@@ -6064,12 +6071,12 @@
         <v>500</v>
       </c>
       <c r="F125" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "380"}, {"CodAlf2","IT"},{"CodAlf3","ITA"}, {"DesPT", "ITALIA" }, {"DesEN", "ITALY, ITALIAN REPUBLIC" } },</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>388</v>
       </c>
       <c r="B126" t="s">
@@ -6085,12 +6092,12 @@
         <v>504</v>
       </c>
       <c r="F126" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "388"}, {"CodAlf2","JM"},{"CodAlf3","JAM"}, {"DesPT", "JAMAICA" }, {"DesEN", "JAMAICA" } },</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="2">
         <v>392</v>
       </c>
       <c r="B127" t="s">
@@ -6106,12 +6113,12 @@
         <v>508</v>
       </c>
       <c r="F127" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "392"}, {"CodAlf2","JP"},{"CodAlf3","JPN"}, {"DesPT", "JAPAO" }, {"DesEN", "JAPAN" } },</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="2">
         <v>832</v>
       </c>
       <c r="B128" t="s">
@@ -6127,12 +6134,12 @@
         <v>512</v>
       </c>
       <c r="F128" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "832"}, {"CodAlf2","JE"},{"CodAlf3","JEY"}, {"DesPT", "JERSEY" }, {"DesEN", "JERSEY (a partir de 2006-03-29)" } },</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="2">
         <v>262</v>
       </c>
       <c r="B129" t="s">
@@ -6148,12 +6155,12 @@
         <v>516</v>
       </c>
       <c r="F129" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "262"}, {"CodAlf2","DJ"},{"CodAlf3","DJI"}, {"DesPT", "JIBUTI" }, {"DesEN", "DJIBOUTI, REPUBLIC OF (WAS FRENCH AFARS AND ISSAS)" } },</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>400</v>
       </c>
       <c r="B130" t="s">
@@ -6169,12 +6176,12 @@
         <v>520</v>
       </c>
       <c r="F130" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "400"}, {"CodAlf2","JO"},{"CodAlf3","JOR"}, {"DesPT", "JORDANIA" }, {"DesEN", "JORDAN, HASHEMITE KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>404</v>
       </c>
       <c r="B131" t="s">
@@ -6190,12 +6197,12 @@
         <v>524</v>
       </c>
       <c r="F131" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "404"}, {"CodAlf2","KE"},{"CodAlf3","KEN"}, {"DesPT", "KENYA" }, {"DesEN", "KENYA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="2">
         <v>296</v>
       </c>
       <c r="B132" t="s">
@@ -6211,12 +6218,12 @@
         <v>528</v>
       </c>
       <c r="F132" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "296"}, {"CodAlf2","KI"},{"CodAlf3","KIR"}, {"DesPT", "KIRIBATI" }, {"DesEN", "KIRIBATI, REPUBLIC OF (WAS GILBERT ISLANDS)" } },</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="2">
         <v>414</v>
       </c>
       <c r="B133" t="s">
@@ -6232,12 +6239,12 @@
         <v>532</v>
       </c>
       <c r="F133" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "414"}, {"CodAlf2","KW"},{"CodAlf3","KWT"}, {"DesPT", "KUWAIT" }, {"DesEN", "KUWAIT, STATE OF" } },</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>418</v>
       </c>
       <c r="B134" t="s">
@@ -6253,12 +6260,12 @@
         <v>536</v>
       </c>
       <c r="F134" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "418"}, {"CodAlf2","LA"},{"CodAlf3","LAO"}, {"DesPT", "LAOS (REPUBLICA POPULAR DEMOCRATICA DO)" }, {"DesEN", "LAO PEOPLE'S DEMOCRATIC REPUBLIC" } },</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="2">
         <v>426</v>
       </c>
       <c r="B135" t="s">
@@ -6274,12 +6281,12 @@
         <v>540</v>
       </c>
       <c r="F135" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "426"}, {"CodAlf2","LS"},{"CodAlf3","LSO"}, {"DesPT", "LESOTO" }, {"DesEN", "LESOTHO, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>428</v>
       </c>
       <c r="B136" t="s">
@@ -6295,12 +6302,12 @@
         <v>544</v>
       </c>
       <c r="F136" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "428"}, {"CodAlf2","LV"},{"CodAlf3","LVA"}, {"DesPT", "LETONIA" }, {"DesEN", "LATVIA" } },</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>422</v>
       </c>
       <c r="B137" t="s">
@@ -6316,12 +6323,12 @@
         <v>548</v>
       </c>
       <c r="F137" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "422"}, {"CodAlf2","LB"},{"CodAlf3","LBN"}, {"DesPT", "LIBANO" }, {"DesEN", "LEBANON, LEBANESE REPUBLIC" } },</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="2">
         <v>430</v>
       </c>
       <c r="B138" t="s">
@@ -6337,12 +6344,12 @@
         <v>552</v>
       </c>
       <c r="F138" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "430"}, {"CodAlf2","LR"},{"CodAlf3","LBR"}, {"DesPT", "LIBERIA" }, {"DesEN", "LIBERIA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="2">
         <v>434</v>
       </c>
       <c r="B139" t="s">
@@ -6358,12 +6365,12 @@
         <v>556</v>
       </c>
       <c r="F139" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "434"}, {"CodAlf2","LY"},{"CodAlf3","LBY"}, {"DesPT", "LIBIA" }, {"DesEN", "LIBYA" } },</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="2">
         <v>438</v>
       </c>
       <c r="B140" t="s">
@@ -6379,12 +6386,12 @@
         <v>560</v>
       </c>
       <c r="F140" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "438"}, {"CodAlf2","LI"},{"CodAlf3","LIE"}, {"DesPT", "LIECHTENSTEIN" }, {"DesEN", "LIECHTENSTEIN, PRINCIPALITY OF" } },</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="2">
         <v>440</v>
       </c>
       <c r="B141" t="s">
@@ -6400,12 +6407,12 @@
         <v>564</v>
       </c>
       <c r="F141" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "440"}, {"CodAlf2","LT"},{"CodAlf3","LTU"}, {"DesPT", "LITUANIA" }, {"DesEN", "LITHUANIA" } },</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>442</v>
       </c>
       <c r="B142" t="s">
@@ -6421,12 +6428,12 @@
         <v>568</v>
       </c>
       <c r="F142" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "442"}, {"CodAlf2","LU"},{"CodAlf3","LUX"}, {"DesPT", "LUXEMBURGO" }, {"DesEN", "LUXEMBOURG, GRAND DUCHY OF" } },</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="2">
         <v>446</v>
       </c>
       <c r="B143" t="s">
@@ -6442,12 +6449,12 @@
         <v>572</v>
       </c>
       <c r="F143" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "446"}, {"CodAlf2","MO"},{"CodAlf3","MAC"}, {"DesPT", "MACAU" }, {"DesEN", "MACAO, SPECIAL ADMINISTRATIVE REGION OF CHINA" } },</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="2">
         <v>807</v>
       </c>
       <c r="B144" t="s">
@@ -6463,12 +6470,12 @@
         <v>576</v>
       </c>
       <c r="F144" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "807"}, {"CodAlf2","MK"},{"CodAlf3","MKD"}, {"DesPT", "MACEDONIA DO NORTE" }, {"DesEN", "NORTH MACEDONIA" } },</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="2">
         <v>450</v>
       </c>
       <c r="B145" t="s">
@@ -6484,12 +6491,12 @@
         <v>580</v>
       </c>
       <c r="F145" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "450"}, {"CodAlf2","MG"},{"CodAlf3","MDG"}, {"DesPT", "MADAGASCAR" }, {"DesEN", "MADAGASCAR, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="2">
         <v>458</v>
       </c>
       <c r="B146" t="s">
@@ -6505,12 +6512,12 @@
         <v>584</v>
       </c>
       <c r="F146" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "458"}, {"CodAlf2","MY"},{"CodAlf3","MYS"}, {"DesPT", "MALASIA" }, {"DesEN", "MALAYSIA" } },</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>454</v>
       </c>
       <c r="B147" t="s">
@@ -6526,12 +6533,12 @@
         <v>588</v>
       </c>
       <c r="F147" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "454"}, {"CodAlf2","MW"},{"CodAlf3","MWI"}, {"DesPT", "MALAWI" }, {"DesEN", "MALAWI, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>462</v>
       </c>
       <c r="B148" t="s">
@@ -6547,12 +6554,12 @@
         <v>592</v>
       </c>
       <c r="F148" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "462"}, {"CodAlf2","MV"},{"CodAlf3","MDV"}, {"DesPT", "MALDIVAS" }, {"DesEN", "MALDIVES, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>466</v>
       </c>
       <c r="B149" t="s">
@@ -6568,12 +6575,12 @@
         <v>596</v>
       </c>
       <c r="F149" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "466"}, {"CodAlf2","ML"},{"CodAlf3","MLI"}, {"DesPT", "MALI" }, {"DesEN", "MALI, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="2">
         <v>470</v>
       </c>
       <c r="B150" t="s">
@@ -6589,12 +6596,12 @@
         <v>600</v>
       </c>
       <c r="F150" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "470"}, {"CodAlf2","MT"},{"CodAlf3","MLT"}, {"DesPT", "MALTA" }, {"DesEN", "MALTA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>504</v>
       </c>
       <c r="B151" t="s">
@@ -6610,12 +6617,12 @@
         <v>604</v>
       </c>
       <c r="F151" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "504"}, {"CodAlf2","MA"},{"CodAlf3","MAR"}, {"DesPT", "MARROCOS" }, {"DesEN", "MOROCCO, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>474</v>
       </c>
       <c r="B152" t="s">
@@ -6631,12 +6638,12 @@
         <v>608</v>
       </c>
       <c r="F152" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "474"}, {"CodAlf2","MQ"},{"CodAlf3","MTQ"}, {"DesPT", "MARTINICA" }, {"DesEN", "MARTINIQUE" } },</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>480</v>
       </c>
       <c r="B153" t="s">
@@ -6652,12 +6659,12 @@
         <v>612</v>
       </c>
       <c r="F153" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "480"}, {"CodAlf2","MU"},{"CodAlf3","MUS"}, {"DesPT", "MAURICIAS" }, {"DesEN", "MAURITIUS" } },</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="2">
         <v>478</v>
       </c>
       <c r="B154" t="s">
@@ -6673,12 +6680,12 @@
         <v>616</v>
       </c>
       <c r="F154" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "478"}, {"CodAlf2","MR"},{"CodAlf3","MRT"}, {"DesPT", "MAURITANIA" }, {"DesEN", "MAURITANIA, ISLAMIC REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="2">
         <v>175</v>
       </c>
       <c r="B155" t="s">
@@ -6694,12 +6701,12 @@
         <v>620</v>
       </c>
       <c r="F155" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "175"}, {"CodAlf2","YT"},{"CodAlf3","MYT"}, {"DesPT", "MAYOTTE" }, {"DesEN", "MAYOTTE" } },</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="2">
         <v>484</v>
       </c>
       <c r="B156" t="s">
@@ -6715,12 +6722,12 @@
         <v>624</v>
       </c>
       <c r="F156" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "484"}, {"CodAlf2","MX"},{"CodAlf3","MEX"}, {"DesPT", "MEXICO" }, {"DesEN", "MEXICO, UNITED MEXICAN STATES" } },</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>104</v>
       </c>
       <c r="B157" t="s">
@@ -6736,12 +6743,12 @@
         <v>628</v>
       </c>
       <c r="F157" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "104"}, {"CodAlf2","MM"},{"CodAlf3","MMR"}, {"DesPT", "MIANMAR" }, {"DesEN", "MYANMAR (WAS BURMA)" } },</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="2">
         <v>583</v>
       </c>
       <c r="B158" t="s">
@@ -6757,12 +6764,12 @@
         <v>632</v>
       </c>
       <c r="F158" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "583"}, {"CodAlf2","FM"},{"CodAlf3","FSM"}, {"DesPT", "MICRONESIA (ESTADOS FEDERADOS DA)" }, {"DesEN", "MICRONESIA, FEDERATED STATES OF" } },</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="2">
         <v>508</v>
       </c>
       <c r="B159" t="s">
@@ -6778,12 +6785,12 @@
         <v>636</v>
       </c>
       <c r="F159" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "508"}, {"CodAlf2","MZ"},{"CodAlf3","MOZ"}, {"DesPT", "MOCAMBIQUE" }, {"DesEN", "MOZAMBIQUE, PEOPLE'S REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>498</v>
       </c>
       <c r="B160" t="s">
@@ -6799,12 +6806,12 @@
         <v>640</v>
       </c>
       <c r="F160" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "498"}, {"CodAlf2","MD"},{"CodAlf3","MDA"}, {"DesPT", "MOLDOVA (REPUBLICA DE)" }, {"DesEN", "MOLDOVA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>492</v>
       </c>
       <c r="B161" t="s">
@@ -6820,12 +6827,12 @@
         <v>644</v>
       </c>
       <c r="F161" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "492"}, {"CodAlf2","MC"},{"CodAlf3","MCO"}, {"DesPT", "MONACO" }, {"DesEN", "MONACO, PRINCIPALITY OF" } },</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>496</v>
       </c>
       <c r="B162" t="s">
@@ -6841,12 +6848,12 @@
         <v>648</v>
       </c>
       <c r="F162" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "496"}, {"CodAlf2","MN"},{"CodAlf3","MNG"}, {"DesPT", "MONGOLIA" }, {"DesEN", "MONGOLIA, MONGOLIAN PEOPLE'S REPUBLIC" } },</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>500</v>
       </c>
       <c r="B163" t="s">
@@ -6862,12 +6869,12 @@
         <v>652</v>
       </c>
       <c r="F163" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "500"}, {"CodAlf2","MS"},{"CodAlf3","MSR"}, {"DesPT", "MONSERRATE" }, {"DesEN", "MONTSERRAT" } },</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>499</v>
       </c>
       <c r="B164" t="s">
@@ -6883,12 +6890,12 @@
         <v>656</v>
       </c>
       <c r="F164" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "499"}, {"CodAlf2","ME"},{"CodAlf3","MNE"}, {"DesPT", "MONTENEGRO (REPUBLICA DE)" }, {"DesEN", "MONTENEGRO, REPUBLIC OF (a partir de 2006-09-26)" } },</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>516</v>
       </c>
       <c r="B165" t="s">
@@ -6904,12 +6911,12 @@
         <v>660</v>
       </c>
       <c r="F165" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "516"}, {"CodAlf2","NA"},{"CodAlf3","NAM"}, {"DesPT", "NAMIBIA" }, {"DesEN", "NAMIBIA" } },</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>520</v>
       </c>
       <c r="B166" t="s">
@@ -6925,12 +6932,12 @@
         <v>664</v>
       </c>
       <c r="F166" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "520"}, {"CodAlf2","NR"},{"CodAlf3","NRU"}, {"DesPT", "NAURU" }, {"DesEN", "NAURU, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>524</v>
       </c>
       <c r="B167" t="s">
@@ -6946,12 +6953,12 @@
         <v>668</v>
       </c>
       <c r="F167" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "524"}, {"CodAlf2","NP"},{"CodAlf3","NPL"}, {"DesPT", "NEPAL" }, {"DesEN", "NEPAL, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>558</v>
       </c>
       <c r="B168" t="s">
@@ -6967,12 +6974,12 @@
         <v>672</v>
       </c>
       <c r="F168" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "558"}, {"CodAlf2","NI"},{"CodAlf3","NIC"}, {"DesPT", "NICARAGUA" }, {"DesEN", "NICARAGUA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>562</v>
       </c>
       <c r="B169" t="s">
@@ -6988,12 +6995,12 @@
         <v>676</v>
       </c>
       <c r="F169" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "562"}, {"CodAlf2","NE"},{"CodAlf3","NER"}, {"DesPT", "NIGER" }, {"DesEN", "NIGER, REPUBLIC OF THE" } },</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>566</v>
       </c>
       <c r="B170" t="s">
@@ -7009,12 +7016,12 @@
         <v>680</v>
       </c>
       <c r="F170" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "566"}, {"CodAlf2","NG"},{"CodAlf3","NGA"}, {"DesPT", "NIGERIA" }, {"DesEN", "NIGERIA, FEDERAL REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>570</v>
       </c>
       <c r="B171" t="s">
@@ -7030,12 +7037,12 @@
         <v>684</v>
       </c>
       <c r="F171" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "570"}, {"CodAlf2","NU"},{"CodAlf3","NIU"}, {"DesPT", "NIUE" }, {"DesEN", "NIUE, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>578</v>
       </c>
       <c r="B172" t="s">
@@ -7051,12 +7058,12 @@
         <v>688</v>
       </c>
       <c r="F172" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "578"}, {"CodAlf2","NO"},{"CodAlf3","NOR"}, {"DesPT", "NORUEGA" }, {"DesEN", "NORWAY, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>540</v>
       </c>
       <c r="B173" t="s">
@@ -7072,12 +7079,12 @@
         <v>692</v>
       </c>
       <c r="F173" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "540"}, {"CodAlf2","NC"},{"CodAlf3","NCL"}, {"DesPT", "NOVA CALEDONIA" }, {"DesEN", "NEW CALEDONIA" } },</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>554</v>
       </c>
       <c r="B174" t="s">
@@ -7093,12 +7100,12 @@
         <v>696</v>
       </c>
       <c r="F174" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "554"}, {"CodAlf2","NZ"},{"CodAlf3","NZL"}, {"DesPT", "NOVA ZELANDIA" }, {"DesEN", "NEW ZEALAND" } },</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="2">
         <v>512</v>
       </c>
       <c r="B175" t="s">
@@ -7114,12 +7121,12 @@
         <v>700</v>
       </c>
       <c r="F175" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "512"}, {"CodAlf2","OM"},{"CodAlf3","OMN"}, {"DesPT", "OMA" }, {"DesEN", "OMAN, SULTANATE OF (WAS MUSCAT AND OMAN)" } },</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="2">
         <v>528</v>
       </c>
       <c r="B176" t="s">
@@ -7135,12 +7142,12 @@
         <v>704</v>
       </c>
       <c r="F176" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "528"}, {"CodAlf2","NL"},{"CodAlf3","NLD"}, {"DesPT", "PAISES BAIXOS" }, {"DesEN", "NETHERLANDS, KINGDOM OF THE" } },</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="2">
         <v>535</v>
       </c>
       <c r="B177" t="s">
@@ -7156,12 +7163,12 @@
         <v>708</v>
       </c>
       <c r="F177" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "535"}, {"CodAlf2","BQ"},{"CodAlf3","BES"}, {"DesPT", "PAISES BAIXOS CARIBENHOS" }, {"DesEN", "BONAIRE, SINT EUSTATIUS AND SABA" } },</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="2">
         <v>585</v>
       </c>
       <c r="B178" t="s">
@@ -7177,12 +7184,12 @@
         <v>712</v>
       </c>
       <c r="F178" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "585"}, {"CodAlf2","PW"},{"CodAlf3","PLW"}, {"DesPT", "PALAU" }, {"DesEN", "PALAU" } },</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="2">
         <v>591</v>
       </c>
       <c r="B179" t="s">
@@ -7198,12 +7205,12 @@
         <v>716</v>
       </c>
       <c r="F179" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "591"}, {"CodAlf2","PA"},{"CodAlf3","PAN"}, {"DesPT", "PANAMA" }, {"DesEN", "PANAMA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="2">
         <v>598</v>
       </c>
       <c r="B180" t="s">
@@ -7219,12 +7226,12 @@
         <v>720</v>
       </c>
       <c r="F180" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "598"}, {"CodAlf2","PG"},{"CodAlf3","PNG"}, {"DesPT", "PAPUASIA-NOVA GUINE" }, {"DesEN", "PAPUA NEW GUINEA" } },</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="2">
         <v>586</v>
       </c>
       <c r="B181" t="s">
@@ -7240,12 +7247,12 @@
         <v>724</v>
       </c>
       <c r="F181" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "586"}, {"CodAlf2","PK"},{"CodAlf3","PAK"}, {"DesPT", "PAQUISTAO" }, {"DesEN", "PAKISTAN, ISLAMIC REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="2">
         <v>600</v>
       </c>
       <c r="B182" t="s">
@@ -7261,12 +7268,12 @@
         <v>728</v>
       </c>
       <c r="F182" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "600"}, {"CodAlf2","PY"},{"CodAlf3","PRY"}, {"DesPT", "PARAGUAI" }, {"DesEN", "PARAGUAY, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="2">
         <v>604</v>
       </c>
       <c r="B183" t="s">
@@ -7282,12 +7289,12 @@
         <v>732</v>
       </c>
       <c r="F183" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "604"}, {"CodAlf2","PE"},{"CodAlf3","PER"}, {"DesPT", "PERU" }, {"DesEN", "PERU, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="2">
         <v>612</v>
       </c>
       <c r="B184" t="s">
@@ -7303,12 +7310,12 @@
         <v>736</v>
       </c>
       <c r="F184" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "612"}, {"CodAlf2","PN"},{"CodAlf3","PCN"}, {"DesPT", "PITCAIRN" }, {"DesEN", "PITCAIRN ISLAND" } },</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="2">
         <v>258</v>
       </c>
       <c r="B185" t="s">
@@ -7324,12 +7331,12 @@
         <v>740</v>
       </c>
       <c r="F185" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "258"}, {"CodAlf2","PF"},{"CodAlf3","PYF"}, {"DesPT", "POLINESIA FRANCESA" }, {"DesEN", "FRENCH POLYNESIA" } },</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="2">
         <v>616</v>
       </c>
       <c r="B186" t="s">
@@ -7345,12 +7352,12 @@
         <v>744</v>
       </c>
       <c r="F186" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "616"}, {"CodAlf2","PL"},{"CodAlf3","POL"}, {"DesPT", "POLONIA" }, {"DesEN", "POLAND, POLISH PEOPLE'S REPUBLIC" } },</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="2">
         <v>630</v>
       </c>
       <c r="B187" t="s">
@@ -7366,12 +7373,12 @@
         <v>748</v>
       </c>
       <c r="F187" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "630"}, {"CodAlf2","PR"},{"CodAlf3","PRI"}, {"DesPT", "PORTO RICO" }, {"DesEN", "PUERTO RICO" } },</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="2">
         <v>620</v>
       </c>
       <c r="B188" t="s">
@@ -7387,12 +7394,12 @@
         <v>752</v>
       </c>
       <c r="F188" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "620"}, {"CodAlf2","PT"},{"CodAlf3","PRT"}, {"DesPT", "PORTUGAL" }, {"DesEN", "PORTUGAL, PORTUGUESE REPUBLIC" } },</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="2">
         <v>417</v>
       </c>
       <c r="B189" t="s">
@@ -7408,12 +7415,12 @@
         <v>756</v>
       </c>
       <c r="F189" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "417"}, {"CodAlf2","KG"},{"CodAlf3","KGZ"}, {"DesPT", "QUIRGUIZISTAO" }, {"DesEN", "KYRGYZ REPUBLIC" } },</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="2">
         <v>826</v>
       </c>
       <c r="B190" t="s">
@@ -7429,12 +7436,12 @@
         <v>760</v>
       </c>
       <c r="F190" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "826"}, {"CodAlf2","GB"},{"CodAlf3","GBR"}, {"DesPT", "REINO UNIDO" }, {"DesEN", "UNITED KINGDOM OF GREAT BRITAIN &amp; N. IRELAND" } },</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="2">
         <v>214</v>
       </c>
       <c r="B191" t="s">
@@ -7450,12 +7457,12 @@
         <v>764</v>
       </c>
       <c r="F191" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "214"}, {"CodAlf2","DO"},{"CodAlf3","DOM"}, {"DesPT", "REPUBLICA DOMINICANA" }, {"DesEN", "DOMINICAN REPUBLIC" } },</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="2">
         <v>638</v>
       </c>
       <c r="B192" t="s">
@@ -7471,12 +7478,12 @@
         <v>768</v>
       </c>
       <c r="F192" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "638"}, {"CodAlf2","RE"},{"CodAlf3","REU"}, {"DesPT", "REUNIAO" }, {"DesEN", "REUNION" } },</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="2">
         <v>642</v>
       </c>
       <c r="B193" t="s">
@@ -7492,12 +7499,12 @@
         <v>772</v>
       </c>
       <c r="F193" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "642"}, {"CodAlf2","RO"},{"CodAlf3","ROU"}, {"DesPT", "ROMENIA" }, {"DesEN", "ROMANIA, SOCIALIST REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="2">
         <v>646</v>
       </c>
       <c r="B194" t="s">
@@ -7513,12 +7520,12 @@
         <v>776</v>
       </c>
       <c r="F194" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "646"}, {"CodAlf2","RW"},{"CodAlf3","RWA"}, {"DesPT", "RUANDA" }, {"DesEN", "RWANDA, RWANDESE REPUBLIC" } },</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="2">
         <v>643</v>
       </c>
       <c r="B195" t="s">
@@ -7534,12 +7541,12 @@
         <v>780</v>
       </c>
       <c r="F195" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "643"}, {"CodAlf2","RU"},{"CodAlf3","RUS"}, {"DesPT", "RUSSIA (FEDERACAO DA)" }, {"DesEN", "RUSSIAN FEDERATION" } },</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="2">
         <v>882</v>
       </c>
       <c r="B196" t="s">
@@ -7555,12 +7562,12 @@
         <v>784</v>
       </c>
       <c r="F196" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "882"}, {"CodAlf2","WS"},{"CodAlf3","WSM"}, {"DesPT", "SAMOA" }, {"DesEN", "SAMOA, INDEPENDENT STATE OF (WAS WESTERN SAMOA)" } },</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="2">
         <v>16</v>
       </c>
       <c r="B197" t="s">
@@ -7576,12 +7583,12 @@
         <v>788</v>
       </c>
       <c r="F197" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "16"}, {"CodAlf2","AS"},{"CodAlf3","ASM"}, {"DesPT", "SAMOA AMERICANA" }, {"DesEN", "AMERICAN SAMOA" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "016"}, {"CodAlf2","AS"},{"CodAlf3","ASM"}, {"DesPT", "SAMOA AMERICANA" }, {"DesEN", "AMERICAN SAMOA" } },</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="2">
         <v>654</v>
       </c>
       <c r="B198" t="s">
@@ -7597,12 +7604,12 @@
         <v>792</v>
       </c>
       <c r="F198" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "654"}, {"CodAlf2","SH"},{"CodAlf3","SHN"}, {"DesPT", "SANTA HELENA" }, {"DesEN", "ST. HELENA" } },</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="2">
         <v>662</v>
       </c>
       <c r="B199" t="s">
@@ -7618,12 +7625,12 @@
         <v>796</v>
       </c>
       <c r="F199" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "662"}, {"CodAlf2","LC"},{"CodAlf3","LCA"}, {"DesPT", "SANTA LUCIA" }, {"DesEN", "ST. LUCIA" } },</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="2">
         <v>336</v>
       </c>
       <c r="B200" t="s">
@@ -7639,12 +7646,12 @@
         <v>800</v>
       </c>
       <c r="F200" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "336"}, {"CodAlf2","VA"},{"CodAlf3","VAT"}, {"DesPT", "SANTA SE (CIDADE ESTADO DO VATICANO)" }, {"DesEN", "HOLY SEE (VATICAN CITY STATE)" } },</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="2">
         <v>652</v>
       </c>
       <c r="B201" t="s">
@@ -7660,12 +7667,12 @@
         <v>804</v>
       </c>
       <c r="F201" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "652"}, {"CodAlf2","BL"},{"CodAlf3","BLM"}, {"DesPT", "SÃO BARTOLOMEU" }, {"DesEN", "SAINT BARTHELEMY" } },</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="2">
         <v>659</v>
       </c>
       <c r="B202" t="s">
@@ -7681,12 +7688,12 @@
         <v>808</v>
       </c>
       <c r="F202" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "659"}, {"CodAlf2","KN"},{"CodAlf3","KNA"}, {"DesPT", "SAO CRISTOVAO E NEVIS" }, {"DesEN", "ST. KITTS AND NEVIS" } },</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="2">
         <v>674</v>
       </c>
       <c r="B203" t="s">
@@ -7702,12 +7709,12 @@
         <v>812</v>
       </c>
       <c r="F203" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "674"}, {"CodAlf2","SM"},{"CodAlf3","SMR"}, {"DesPT", "SAO MARINO" }, {"DesEN", "SAN MARINO, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="2">
         <v>534</v>
       </c>
       <c r="B204" t="s">
@@ -7723,12 +7730,12 @@
         <v>816</v>
       </c>
       <c r="F204" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "534"}, {"CodAlf2","SX"},{"CodAlf3","SXM"}, {"DesPT", "SÃO MARTINHO" }, {"DesEN", "SINT MAARTEN (DUTCH PART)" } },</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="2">
         <v>663</v>
       </c>
       <c r="B205" t="s">
@@ -7744,12 +7751,12 @@
         <v>820</v>
       </c>
       <c r="F205" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "663"}, {"CodAlf2","MF"},{"CodAlf3","MAF"}, {"DesPT", "SÃO MARTINHO (COLETIVIDADE DE SÃO MARTINHO)" }, {"DesEN", "SAINT MARTIN (FRENCH PART)" } },</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="2">
         <v>666</v>
       </c>
       <c r="B206" t="s">
@@ -7765,12 +7772,12 @@
         <v>824</v>
       </c>
       <c r="F206" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "666"}, {"CodAlf2","PM"},{"CodAlf3","SPM"}, {"DesPT", "SAO PEDRO E MIQUELON" }, {"DesEN", "ST. PIERRE AND MIQUELON" } },</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="2">
         <v>678</v>
       </c>
       <c r="B207" t="s">
@@ -7786,12 +7793,12 @@
         <v>828</v>
       </c>
       <c r="F207" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "678"}, {"CodAlf2","ST"},{"CodAlf3","STP"}, {"DesPT", "SAO TOME E PRINCIPE" }, {"DesEN", "SAO TOME AND PRINCIPE, DEMOCRATIC REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="2">
         <v>670</v>
       </c>
       <c r="B208" t="s">
@@ -7807,12 +7814,12 @@
         <v>832</v>
       </c>
       <c r="F208" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "670"}, {"CodAlf2","VC"},{"CodAlf3","VCT"}, {"DesPT", "SAO VICENTE E GRANADINAS" }, {"DesEN", "ST. VINCENT AND THE GRENADINES" } },</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="2">
         <v>732</v>
       </c>
       <c r="B209" t="s">
@@ -7828,12 +7835,12 @@
         <v>836</v>
       </c>
       <c r="F209" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "732"}, {"CodAlf2","EH"},{"CodAlf3","ESH"}, {"DesPT", "SARA OCIDENTAL" }, {"DesEN", "WESTERN SAHARA (WAS SPANISH SAHARA)" } },</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="2">
         <v>686</v>
       </c>
       <c r="B210" t="s">
@@ -7849,12 +7856,12 @@
         <v>840</v>
       </c>
       <c r="F210" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "686"}, {"CodAlf2","SN"},{"CodAlf3","SEN"}, {"DesPT", "SENEGAL" }, {"DesEN", "SENEGAL, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="2">
         <v>144</v>
       </c>
       <c r="B211" t="s">
@@ -7870,12 +7877,12 @@
         <v>844</v>
       </c>
       <c r="F211" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "144"}, {"CodAlf2","LK"},{"CodAlf3","LKA"}, {"DesPT", "SERI LANCA" }, {"DesEN", "SRI LANKA, DEMOCRATIC SOCIALIST REPUBLIC OF (WAS CEYLON)" } },</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="2">
         <v>694</v>
       </c>
       <c r="B212" t="s">
@@ -7891,12 +7898,12 @@
         <v>848</v>
       </c>
       <c r="F212" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "694"}, {"CodAlf2","SL"},{"CodAlf3","SLE"}, {"DesPT", "SERRA LEOA" }, {"DesEN", "SIERRA LEONE, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="2">
         <v>688</v>
       </c>
       <c r="B213" t="s">
@@ -7912,12 +7919,12 @@
         <v>852</v>
       </c>
       <c r="F213" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "688"}, {"CodAlf2","RS"},{"CodAlf3","SRB"}, {"DesPT", "SERVIA (REPUBLICA DA)" }, {"DesEN", "SERBIA, REPUBLIC OF (a partir de 2006-09-26)" } },</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="2">
         <v>690</v>
       </c>
       <c r="B214" t="s">
@@ -7933,12 +7940,12 @@
         <v>856</v>
       </c>
       <c r="F214" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "690"}, {"CodAlf2","SC"},{"CodAlf3","SYC"}, {"DesPT", "SEYCHELLES" }, {"DesEN", "SEYCHELLES, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="2">
         <v>702</v>
       </c>
       <c r="B215" t="s">
@@ -7954,12 +7961,12 @@
         <v>860</v>
       </c>
       <c r="F215" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "702"}, {"CodAlf2","SG"},{"CodAlf3","SGP"}, {"DesPT", "SINGAPURA" }, {"DesEN", "SINGAPORE, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="2">
         <v>760</v>
       </c>
       <c r="B216" t="s">
@@ -7975,12 +7982,12 @@
         <v>864</v>
       </c>
       <c r="F216" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "760"}, {"CodAlf2","SY"},{"CodAlf3","SYR"}, {"DesPT", "SIRIA (REPUBLICA ARABE DA)" }, {"DesEN", "SYRIAN ARAB REPUBLIC" } },</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="2">
         <v>706</v>
       </c>
       <c r="B217" t="s">
@@ -7996,12 +8003,12 @@
         <v>868</v>
       </c>
       <c r="F217" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "706"}, {"CodAlf2","SO"},{"CodAlf3","SOM"}, {"DesPT", "SOMALIA" }, {"DesEN", "SOMALIA, SOMALI REPUBLIC" } },</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="2">
         <v>729</v>
       </c>
       <c r="B218" t="s">
@@ -8017,12 +8024,12 @@
         <v>872</v>
       </c>
       <c r="F218" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "729"}, {"CodAlf2","SD"},{"CodAlf3","SDN"}, {"DesPT", "SUDÃO" }, {"DesEN", "SUDAN (THE)" } },</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="2">
         <v>728</v>
       </c>
       <c r="B219" t="s">
@@ -8038,12 +8045,12 @@
         <v>876</v>
       </c>
       <c r="F219" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "728"}, {"CodAlf2","SS"},{"CodAlf3","SSD"}, {"DesPT", "SUDÃO DO SUL" }, {"DesEN", "SOUTH SUDAN" } },</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="2">
         <v>752</v>
       </c>
       <c r="B220" t="s">
@@ -8059,12 +8066,12 @@
         <v>880</v>
       </c>
       <c r="F220" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "752"}, {"CodAlf2","SE"},{"CodAlf3","SWE"}, {"DesPT", "SUECIA" }, {"DesEN", "SWEDEN, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="2">
         <v>756</v>
       </c>
       <c r="B221" t="s">
@@ -8080,12 +8087,12 @@
         <v>884</v>
       </c>
       <c r="F221" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "756"}, {"CodAlf2","CH"},{"CodAlf3","CHE"}, {"DesPT", "SUICA" }, {"DesEN", "SWITZERLAND, SWISS CONFEDERATION" } },</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="2">
         <v>740</v>
       </c>
       <c r="B222" t="s">
@@ -8101,12 +8108,12 @@
         <v>888</v>
       </c>
       <c r="F222" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "740"}, {"CodAlf2","SR"},{"CodAlf3","SUR"}, {"DesPT", "SURINAME" }, {"DesEN", "SURINAME, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="2">
         <v>744</v>
       </c>
       <c r="B223" t="s">
@@ -8122,12 +8129,12 @@
         <v>892</v>
       </c>
       <c r="F223" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "744"}, {"CodAlf2","SJ"},{"CodAlf3","SJM"}, {"DesPT", "SVALBARD E A ILHA DE JAN MAYEN" }, {"DesEN", "SVALBARD &amp; JAN MAYEN ISLANDS" } },</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="2">
         <v>764</v>
       </c>
       <c r="B224" t="s">
@@ -8143,12 +8150,12 @@
         <v>896</v>
       </c>
       <c r="F224" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "764"}, {"CodAlf2","TH"},{"CodAlf3","THA"}, {"DesPT", "TAILANDIA" }, {"DesEN", "THAILAND, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="2">
         <v>158</v>
       </c>
       <c r="B225" t="s">
@@ -8164,12 +8171,12 @@
         <v>900</v>
       </c>
       <c r="F225" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "158"}, {"CodAlf2","TW"},{"CodAlf3","TWN"}, {"DesPT", "TAIWAN" }, {"DesEN", "TAIWAN" } },</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="2">
         <v>762</v>
       </c>
       <c r="B226" t="s">
@@ -8185,12 +8192,12 @@
         <v>904</v>
       </c>
       <c r="F226" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "762"}, {"CodAlf2","TJ"},{"CodAlf3","TJK"}, {"DesPT", "TAJIQUISTAO" }, {"DesEN", "TAJIKISTAN" } },</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="2">
         <v>834</v>
       </c>
       <c r="B227" t="s">
@@ -8206,12 +8213,12 @@
         <v>908</v>
       </c>
       <c r="F227" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "834"}, {"CodAlf2","TZ"},{"CodAlf3","TZA"}, {"DesPT", "TANZANIA, REPUBLICA UNIDA DA" }, {"DesEN", "TANZANIA, UNITED REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="2">
         <v>86</v>
       </c>
       <c r="B228" t="s">
@@ -8227,12 +8234,12 @@
         <v>912</v>
       </c>
       <c r="F228" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
-        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "86"}, {"CodAlf2","IO"},{"CodAlf3","IOT"}, {"DesPT", "TERRITORIO BRITANICO DO OCEANO INDICO" }, {"DesEN", "BRITISH INDIAN OCEAN TERRITORY (CHAGOS ARCHIPELAGO)" } },</v>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <v>new Dictionary&lt;string, string&gt; { {"CodNum", "086"}, {"CodAlf2","IO"},{"CodAlf3","IOT"}, {"DesPT", "TERRITORIO BRITANICO DO OCEANO INDICO" }, {"DesEN", "BRITISH INDIAN OCEAN TERRITORY (CHAGOS ARCHIPELAGO)" } },</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="2">
         <v>275</v>
       </c>
       <c r="B229" t="s">
@@ -8248,12 +8255,12 @@
         <v>916</v>
       </c>
       <c r="F229" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "275"}, {"CodAlf2","PS"},{"CodAlf3","PSE"}, {"DesPT", "TERRITORIO PALESTINIANO OCUPADO" }, {"DesEN", "PALESTINIAN TERRITORY, OCCUPIED" } },</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="2">
         <v>260</v>
       </c>
       <c r="B230" t="s">
@@ -8269,12 +8276,12 @@
         <v>920</v>
       </c>
       <c r="F230" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "260"}, {"CodAlf2","TF"},{"CodAlf3","ATF"}, {"DesPT", "TERRITORIOS FRANCESES DO SUL" }, {"DesEN", "FRENCH SOUTHERN TERRITORIES" } },</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>626</v>
       </c>
       <c r="B231" t="s">
@@ -8290,12 +8297,12 @@
         <v>924</v>
       </c>
       <c r="F231" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "626"}, {"CodAlf2","TL"},{"CodAlf3","TLS"}, {"DesPT", "TIMOR LESTE" }, {"DesEN", "EAST TIMOR, DEMOCRATIC REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="2">
         <v>768</v>
       </c>
       <c r="B232" t="s">
@@ -8311,12 +8318,12 @@
         <v>928</v>
       </c>
       <c r="F232" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "768"}, {"CodAlf2","TG"},{"CodAlf3","TGO"}, {"DesPT", "TOGO" }, {"DesEN", "TOGO, TOGOLESE REPUBLIC" } },</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="2">
         <v>772</v>
       </c>
       <c r="B233" t="s">
@@ -8332,12 +8339,12 @@
         <v>932</v>
       </c>
       <c r="F233" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "772"}, {"CodAlf2","TK"},{"CodAlf3","TKL"}, {"DesPT", "TOKELAU" }, {"DesEN", "TOKELAU (TOKELAU ISLANDS)" } },</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="2">
         <v>776</v>
       </c>
       <c r="B234" t="s">
@@ -8353,12 +8360,12 @@
         <v>936</v>
       </c>
       <c r="F234" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "776"}, {"CodAlf2","TO"},{"CodAlf3","TON"}, {"DesPT", "TONGA" }, {"DesEN", "TONGA, KINGDOM OF" } },</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="2">
         <v>780</v>
       </c>
       <c r="B235" t="s">
@@ -8374,12 +8381,12 @@
         <v>940</v>
       </c>
       <c r="F235" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "780"}, {"CodAlf2","TT"},{"CodAlf3","TTO"}, {"DesPT", "TRINDADE E TOBAGO" }, {"DesEN", "TRINIDAD AND TOBAGO, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="2">
         <v>788</v>
       </c>
       <c r="B236" t="s">
@@ -8395,12 +8402,12 @@
         <v>944</v>
       </c>
       <c r="F236" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "788"}, {"CodAlf2","TN"},{"CodAlf3","TUN"}, {"DesPT", "TUNISIA" }, {"DesEN", "TUNISIA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="2">
         <v>796</v>
       </c>
       <c r="B237" t="s">
@@ -8416,12 +8423,12 @@
         <v>948</v>
       </c>
       <c r="F237" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "796"}, {"CodAlf2","TC"},{"CodAlf3","TCA"}, {"DesPT", "TURCOS E CAICOS (ILHAS)" }, {"DesEN", "TURKS AND CAICOS ISLANDS" } },</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="2">
         <v>795</v>
       </c>
       <c r="B238" t="s">
@@ -8437,12 +8444,12 @@
         <v>952</v>
       </c>
       <c r="F238" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "795"}, {"CodAlf2","TM"},{"CodAlf3","TKM"}, {"DesPT", "TURQUEMENISTAO" }, {"DesEN", "TURKMENISTAN" } },</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="2">
         <v>792</v>
       </c>
       <c r="B239" t="s">
@@ -8458,12 +8465,12 @@
         <v>956</v>
       </c>
       <c r="F239" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "792"}, {"CodAlf2","TR"},{"CodAlf3","TUR"}, {"DesPT", "TURQUIA" }, {"DesEN", "TURKEY, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="2">
         <v>798</v>
       </c>
       <c r="B240" t="s">
@@ -8479,12 +8486,12 @@
         <v>960</v>
       </c>
       <c r="F240" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "798"}, {"CodAlf2","TV"},{"CodAlf3","TUV"}, {"DesPT", "TUVALU" }, {"DesEN", "TUVALU (WAS PART OF GILBERT &amp; ELLICE ISLANDS)" } },</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="2">
         <v>804</v>
       </c>
       <c r="B241" t="s">
@@ -8500,12 +8507,12 @@
         <v>964</v>
       </c>
       <c r="F241" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "804"}, {"CodAlf2","UA"},{"CodAlf3","UKR"}, {"DesPT", "UCRANIA" }, {"DesEN", "UKRAINE" } },</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="2">
         <v>800</v>
       </c>
       <c r="B242" t="s">
@@ -8521,12 +8528,12 @@
         <v>968</v>
       </c>
       <c r="F242" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "800"}, {"CodAlf2","UG"},{"CodAlf3","UGA"}, {"DesPT", "UGANDA" }, {"DesEN", "UGANDA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="2">
         <v>858</v>
       </c>
       <c r="B243" t="s">
@@ -8542,12 +8549,12 @@
         <v>972</v>
       </c>
       <c r="F243" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "858"}, {"CodAlf2","UY"},{"CodAlf3","URY"}, {"DesPT", "URUGUAI" }, {"DesEN", "URUGUAY, EASTERN REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="2">
         <v>860</v>
       </c>
       <c r="B244" t="s">
@@ -8563,12 +8570,12 @@
         <v>976</v>
       </c>
       <c r="F244" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "860"}, {"CodAlf2","UZ"},{"CodAlf3","UZB"}, {"DesPT", "USBEQUISTAO" }, {"DesEN", "UZBEKISTAN" } },</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="2">
         <v>548</v>
       </c>
       <c r="B245" t="s">
@@ -8584,12 +8591,12 @@
         <v>980</v>
       </c>
       <c r="F245" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "548"}, {"CodAlf2","VU"},{"CodAlf3","VUT"}, {"DesPT", "VANUATU" }, {"DesEN", "VANUATU (WAS NEW HEBRIDES)" } },</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="2">
         <v>862</v>
       </c>
       <c r="B246" t="s">
@@ -8605,12 +8612,12 @@
         <v>984</v>
       </c>
       <c r="F246" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "862"}, {"CodAlf2","VE"},{"CodAlf3","VEN"}, {"DesPT", "VENEZUELA" }, {"DesEN", "VENEZUELA, BOLIVARIAN REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="2">
         <v>704</v>
       </c>
       <c r="B247" t="s">
@@ -8626,12 +8633,12 @@
         <v>988</v>
       </c>
       <c r="F247" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "704"}, {"CodAlf2","VN"},{"CodAlf3","VNM"}, {"DesPT", "VIETNAME" }, {"DesEN", "VIET NAM, SOCIALIST REPUBLIC OF (WAS DEMOCRATIC REPUBLIC OF)" } },</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="2">
         <v>876</v>
       </c>
       <c r="B248" t="s">
@@ -8647,12 +8654,12 @@
         <v>992</v>
       </c>
       <c r="F248" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "876"}, {"CodAlf2","WF"},{"CodAlf3","WLF"}, {"DesPT", "WALLIS E FUTUNA (ILHAS)" }, {"DesEN", "WALLIS AND FUTUNA ISLANDS" } },</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="2">
         <v>894</v>
       </c>
       <c r="B249" t="s">
@@ -8668,12 +8675,12 @@
         <v>996</v>
       </c>
       <c r="F249" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "894"}, {"CodAlf2","ZM"},{"CodAlf3","ZMB"}, {"DesPT", "ZAMBIA" }, {"DesEN", "ZAMBIA, REPUBLIC OF" } },</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="2">
         <v>716</v>
       </c>
       <c r="B250" t="s">
@@ -8689,7 +8696,7 @@
         <v>1000</v>
       </c>
       <c r="F250" t="str">
-        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(Table1[[#This Row],[Cód. Num. ]])&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
+        <f>"new Dictionary&lt;string, string&gt; { {""CodNum"", """&amp;TRIM(TEXT(Table1[[#This Row],[Cód. Num. ]],"000"))&amp;"""}, {""CodAlf2"","""&amp;TRIM(Table1[[#This Row],[Cód Alf2 ]])&amp;"""},{""CodAlf3"","""&amp;TRIM(Table1[[#This Row],[Cód Alf3 ]])&amp;"""}, {""DesPT"", """&amp;TRIM(Table1[[#This Row],[Designação ]])&amp;""" }, {""DesEN"", """&amp;TRIM(Table1[[#This Row],[Designação em Inglês]])&amp;""" } },"</f>
         <v>new Dictionary&lt;string, string&gt; { {"CodNum", "716"}, {"CodAlf2","ZW"},{"CodAlf3","ZWE"}, {"DesPT", "ZIMBABWE" }, {"DesEN", "ZIMBABWE (WAS SOUTHERN RHODESIA)" } },</v>
       </c>
     </row>
